--- a/biology/Zoologie/Agrobate_à_dos_brun/Agrobate_à_dos_brun.xlsx
+++ b/biology/Zoologie/Agrobate_à_dos_brun/Agrobate_à_dos_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agrobate_%C3%A0_dos_brun</t>
+          <t>Agrobate_à_dos_brun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agrobate à dos brun (Cercotrichas hartlaubi, anciennement Erythropygia hartlaubi) est une petite espèce de passereaux de la famille des Muscicapidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agrobate_%C3%A0_dos_brun</t>
+          <t>Agrobate_à_dos_brun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit en Angola, au Burundi, au Cameroun, en République centrafricaine, en République Démocratique du Congo, au Kenya, au Nigeria, en Ouganda, au Rwanda et en Tanzanie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agrobate_%C3%A0_dos_brun</t>
+          <t>Agrobate_à_dos_brun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son cadre naturel de vie est la savane humide.         
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agrobate_%C3%A0_dos_brun</t>
+          <t>Agrobate_à_dos_brun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Erythropygia, dans le genre Cercotrichas.
-Synonyme
-Erythropygia hartlaubi</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors placée dans le genre Erythropygia, dans le genre Cercotrichas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrobate_à_dos_brun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrobate_%C3%A0_dos_brun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Erythropygia hartlaubi</t>
         </is>
       </c>
     </row>
